--- a/Surface Settlement/Data Set 4.xlsx
+++ b/Surface Settlement/Data Set 4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pabodha\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Database\Surface Settlement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2603DAE0-D687-4886-83C1-23FCC72C2F89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77446810-4202-49EE-B1F4-FE7C8A5BA635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{23A04F31-3D16-480B-8928-E1B4F80BD64E}"/>
+    <workbookView xWindow="990" yWindow="2730" windowWidth="19185" windowHeight="14970" activeTab="1" xr2:uid="{23A04F31-3D16-480B-8928-E1B4F80BD64E}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Information" sheetId="5" r:id="rId1"/>
@@ -351,7 +351,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -664,17 +664,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1198,7 +1198,7 @@
       </c>
     </row>
     <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="51" t="s">
         <v>1</v>
       </c>
       <c r="C22" s="47" t="s">
@@ -1224,7 +1224,7 @@
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="50"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="32" t="s">
         <v>60</v>
       </c>
@@ -1498,7 +1498,7 @@
   <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1564,7 +1564,7 @@
         <v>79</v>
       </c>
       <c r="D2" s="12">
-        <v>13.76995174408906</v>
+        <v>1.463448255910941</v>
       </c>
       <c r="E2" s="2">
         <v>40</v>
@@ -1587,16 +1587,16 @@
       <c r="K2" s="2">
         <v>8700</v>
       </c>
-      <c r="L2" s="51">
+      <c r="L2" s="49">
         <v>-34</v>
       </c>
-      <c r="M2" s="51">
+      <c r="M2" s="49">
         <v>-53</v>
       </c>
-      <c r="N2" s="51">
+      <c r="N2" s="49">
         <v>27</v>
       </c>
-      <c r="O2" s="51">
+      <c r="O2" s="49">
         <v>-53</v>
       </c>
       <c r="P2" s="40">
@@ -1614,7 +1614,7 @@
         <v>79</v>
       </c>
       <c r="D3" s="12">
-        <v>13.67881608098903</v>
+        <v>1.5721249026175279</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -1637,16 +1637,16 @@
       <c r="K3" s="2">
         <v>24600</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="49">
         <v>-63</v>
       </c>
-      <c r="M3" s="51">
+      <c r="M3" s="49">
         <v>-67</v>
       </c>
-      <c r="N3" s="51">
+      <c r="N3" s="49">
         <v>5</v>
       </c>
-      <c r="O3" s="51">
+      <c r="O3" s="49">
         <v>-55</v>
       </c>
       <c r="P3" s="40">
@@ -1664,7 +1664,7 @@
         <v>79</v>
       </c>
       <c r="D4" s="12">
-        <v>13.587680417889</v>
+        <v>1.6808015493241149</v>
       </c>
       <c r="E4" s="2">
         <v>80</v>
@@ -1687,16 +1687,16 @@
       <c r="K4" s="2">
         <v>17700</v>
       </c>
-      <c r="L4" s="51">
+      <c r="L4" s="49">
         <v>-80</v>
       </c>
-      <c r="M4" s="51">
+      <c r="M4" s="49">
         <v>-43</v>
       </c>
-      <c r="N4" s="51">
+      <c r="N4" s="49">
         <v>-23</v>
       </c>
-      <c r="O4" s="51">
+      <c r="O4" s="49">
         <v>-62</v>
       </c>
       <c r="P4" s="40">
@@ -1714,7 +1714,7 @@
         <v>79</v>
       </c>
       <c r="D5" s="12">
-        <v>13.496544754788971</v>
+        <v>1.7894781960307016</v>
       </c>
       <c r="E5" s="2">
         <v>110</v>
@@ -1737,16 +1737,16 @@
       <c r="K5" s="2">
         <v>14700</v>
       </c>
-      <c r="L5" s="51">
+      <c r="L5" s="49">
         <v>-78</v>
       </c>
-      <c r="M5" s="51">
+      <c r="M5" s="49">
         <v>-43</v>
       </c>
-      <c r="N5" s="51">
+      <c r="N5" s="49">
         <v>-46</v>
       </c>
-      <c r="O5" s="51">
+      <c r="O5" s="49">
         <v>-48</v>
       </c>
       <c r="P5" s="40">
@@ -1764,7 +1764,7 @@
         <v>79</v>
       </c>
       <c r="D6" s="12">
-        <v>13.405409091688941</v>
+        <v>1.8981548427372883</v>
       </c>
       <c r="E6" s="2">
         <v>110</v>
@@ -1787,16 +1787,16 @@
       <c r="K6" s="2">
         <v>18500</v>
       </c>
-      <c r="L6" s="51">
+      <c r="L6" s="49">
         <v>-49</v>
       </c>
-      <c r="M6" s="51">
+      <c r="M6" s="49">
         <v>-31</v>
       </c>
-      <c r="N6" s="51">
+      <c r="N6" s="49">
         <v>-62</v>
       </c>
-      <c r="O6" s="51">
+      <c r="O6" s="49">
         <v>-44</v>
       </c>
       <c r="P6" s="40">
@@ -1814,7 +1814,7 @@
         <v>79</v>
       </c>
       <c r="D7" s="12">
-        <v>13.326052808076785</v>
+        <v>2.0068314894438752</v>
       </c>
       <c r="E7" s="2">
         <v>120</v>
@@ -1837,16 +1837,16 @@
       <c r="K7" s="2">
         <v>16075</v>
       </c>
-      <c r="L7" s="51">
+      <c r="L7" s="49">
         <v>-37</v>
       </c>
-      <c r="M7" s="51">
+      <c r="M7" s="49">
         <v>-17</v>
       </c>
-      <c r="N7" s="51">
+      <c r="N7" s="49">
         <v>-54</v>
       </c>
-      <c r="O7" s="51">
+      <c r="O7" s="49">
         <v>-42</v>
       </c>
       <c r="P7" s="40">
@@ -1864,7 +1864,7 @@
         <v>79</v>
       </c>
       <c r="D8" s="12">
-        <v>13.333078640709044</v>
+        <v>2.1155081361504622</v>
       </c>
       <c r="E8" s="2">
         <v>110</v>
@@ -1887,16 +1887,16 @@
       <c r="K8" s="2">
         <v>17950</v>
       </c>
-      <c r="L8" s="51">
+      <c r="L8" s="49">
         <v>-31</v>
       </c>
-      <c r="M8" s="51">
+      <c r="M8" s="49">
         <v>-45</v>
       </c>
-      <c r="N8" s="51">
+      <c r="N8" s="49">
         <v>-37</v>
       </c>
-      <c r="O8" s="51">
+      <c r="O8" s="49">
         <v>-15</v>
       </c>
       <c r="P8" s="40">
@@ -1914,7 +1914,7 @@
         <v>79</v>
       </c>
       <c r="D9" s="12">
-        <v>13.340104473341299</v>
+        <v>2.2241847828570487</v>
       </c>
       <c r="E9" s="2">
         <v>110</v>
@@ -1937,16 +1937,16 @@
       <c r="K9" s="2">
         <v>16200</v>
       </c>
-      <c r="L9" s="51">
+      <c r="L9" s="49">
         <v>-32</v>
       </c>
-      <c r="M9" s="51">
+      <c r="M9" s="49">
         <v>-46</v>
       </c>
-      <c r="N9" s="51">
+      <c r="N9" s="49">
         <v>-29</v>
       </c>
-      <c r="O9" s="51">
+      <c r="O9" s="49">
         <v>-21</v>
       </c>
       <c r="P9" s="40">
@@ -1964,7 +1964,7 @@
         <v>79</v>
       </c>
       <c r="D10" s="12">
-        <v>13.347130305973554</v>
+        <v>2.3328614295636356</v>
       </c>
       <c r="E10" s="2">
         <v>120</v>
@@ -1987,16 +1987,16 @@
       <c r="K10" s="2">
         <v>18050</v>
       </c>
-      <c r="L10" s="51">
+      <c r="L10" s="49">
         <v>-15</v>
       </c>
-      <c r="M10" s="51">
+      <c r="M10" s="49">
         <v>-65</v>
       </c>
-      <c r="N10" s="51">
+      <c r="N10" s="49">
         <v>-20</v>
       </c>
-      <c r="O10" s="51">
+      <c r="O10" s="49">
         <v>-51</v>
       </c>
       <c r="P10" s="40">
@@ -2014,7 +2014,7 @@
         <v>79</v>
       </c>
       <c r="D11" s="12">
-        <v>13.354156138605811</v>
+        <v>2.4415380762702226</v>
       </c>
       <c r="E11" s="2">
         <v>110</v>
@@ -2037,16 +2037,16 @@
       <c r="K11" s="2">
         <v>18250</v>
       </c>
-      <c r="L11" s="51">
+      <c r="L11" s="49">
         <v>-8</v>
       </c>
-      <c r="M11" s="51">
+      <c r="M11" s="49">
         <v>-53</v>
       </c>
-      <c r="N11" s="51">
+      <c r="N11" s="49">
         <v>-13</v>
       </c>
-      <c r="O11" s="51">
+      <c r="O11" s="49">
         <v>-57</v>
       </c>
       <c r="P11" s="40">
@@ -2064,7 +2064,7 @@
         <v>79</v>
       </c>
       <c r="D12" s="12">
-        <v>13.368437629478191</v>
+        <v>2.6586615440755277</v>
       </c>
       <c r="E12" s="2">
         <v>130</v>
@@ -2087,16 +2087,16 @@
       <c r="K12" s="2">
         <v>17800</v>
       </c>
-      <c r="L12" s="51">
+      <c r="L12" s="49">
         <v>-1</v>
       </c>
-      <c r="M12" s="51">
+      <c r="M12" s="49">
         <v>-55</v>
       </c>
-      <c r="N12" s="51">
+      <c r="N12" s="49">
         <v>5</v>
       </c>
-      <c r="O12" s="51">
+      <c r="O12" s="49">
         <v>-46</v>
       </c>
       <c r="P12" s="40">
@@ -2114,7 +2114,7 @@
         <v>79</v>
       </c>
       <c r="D13" s="12">
-        <v>13.648821926998853</v>
+        <v>2.4939797258937095</v>
       </c>
       <c r="E13" s="2">
         <v>130</v>
@@ -2137,16 +2137,16 @@
       <c r="K13" s="2">
         <v>18000</v>
       </c>
-      <c r="L13" s="51">
+      <c r="L13" s="49">
         <v>1</v>
       </c>
-      <c r="M13" s="51">
+      <c r="M13" s="49">
         <v>-58</v>
       </c>
-      <c r="N13" s="51">
+      <c r="N13" s="49">
         <v>17</v>
       </c>
-      <c r="O13" s="51">
+      <c r="O13" s="49">
         <v>-55</v>
       </c>
       <c r="P13" s="40">
@@ -2164,7 +2164,7 @@
         <v>79</v>
       </c>
       <c r="D14" s="12">
-        <v>13.913626365015382</v>
+        <v>2.3292979077118918</v>
       </c>
       <c r="E14" s="2">
         <v>130</v>
@@ -2187,16 +2187,16 @@
       <c r="K14" s="2">
         <v>16300</v>
       </c>
-      <c r="L14" s="51">
+      <c r="L14" s="49">
         <v>14</v>
       </c>
-      <c r="M14" s="51">
+      <c r="M14" s="49">
         <v>-47</v>
       </c>
-      <c r="N14" s="51">
+      <c r="N14" s="49">
         <v>16</v>
       </c>
-      <c r="O14" s="51">
+      <c r="O14" s="49">
         <v>-49</v>
       </c>
       <c r="P14" s="40">
@@ -2214,7 +2214,7 @@
         <v>79</v>
       </c>
       <c r="D15" s="12">
-        <v>14.175894546833563</v>
+        <v>2.1646160895300737</v>
       </c>
       <c r="E15" s="2">
         <v>130</v>
@@ -2237,16 +2237,16 @@
       <c r="K15" s="2">
         <v>16900</v>
       </c>
-      <c r="L15" s="51">
+      <c r="L15" s="49">
         <v>-18</v>
       </c>
-      <c r="M15" s="51">
+      <c r="M15" s="49">
         <v>-45</v>
       </c>
-      <c r="N15" s="51">
+      <c r="N15" s="49">
         <v>-8</v>
       </c>
-      <c r="O15" s="51">
+      <c r="O15" s="49">
         <v>-44</v>
       </c>
       <c r="P15" s="40">
@@ -2264,7 +2264,7 @@
         <v>79</v>
       </c>
       <c r="D16" s="12">
-        <v>14.438162728651744</v>
+        <v>1.9999342713482557</v>
       </c>
       <c r="E16" s="2">
         <v>130</v>
@@ -2287,16 +2287,16 @@
       <c r="K16" s="2">
         <v>16975</v>
       </c>
-      <c r="L16" s="51">
+      <c r="L16" s="49">
         <v>4</v>
       </c>
-      <c r="M16" s="51">
+      <c r="M16" s="49">
         <v>-35</v>
       </c>
-      <c r="N16" s="51">
+      <c r="N16" s="49">
         <v>7</v>
       </c>
-      <c r="O16" s="51">
+      <c r="O16" s="49">
         <v>-31</v>
       </c>
       <c r="P16" s="40">
@@ -2314,7 +2314,7 @@
         <v>79</v>
       </c>
       <c r="D17" s="12">
-        <v>14.700430910469926</v>
+        <v>1.8352524531664378</v>
       </c>
       <c r="E17" s="2">
         <v>120</v>
@@ -2337,16 +2337,16 @@
       <c r="K17" s="2">
         <v>17225</v>
       </c>
-      <c r="L17" s="51">
+      <c r="L17" s="49">
         <v>-18</v>
       </c>
-      <c r="M17" s="51">
+      <c r="M17" s="49">
         <v>-39</v>
       </c>
-      <c r="N17" s="51">
+      <c r="N17" s="49">
         <v>16</v>
       </c>
-      <c r="O17" s="51">
+      <c r="O17" s="49">
         <v>-13</v>
       </c>
       <c r="P17" s="40">
@@ -2364,7 +2364,7 @@
         <v>79</v>
       </c>
       <c r="D18" s="12">
-        <v>14.962699092288108</v>
+        <v>1.6705706349846197</v>
       </c>
       <c r="E18" s="2">
         <v>130</v>
@@ -2387,16 +2387,16 @@
       <c r="K18" s="2">
         <v>15750</v>
       </c>
-      <c r="L18" s="51">
+      <c r="L18" s="49">
         <v>-42</v>
       </c>
-      <c r="M18" s="51">
+      <c r="M18" s="49">
         <v>-44</v>
       </c>
-      <c r="N18" s="51">
+      <c r="N18" s="49">
         <v>-5</v>
       </c>
-      <c r="O18" s="51">
+      <c r="O18" s="49">
         <v>-14</v>
       </c>
       <c r="P18" s="40">
@@ -2414,7 +2414,7 @@
         <v>79</v>
       </c>
       <c r="D19" s="12">
-        <v>15.224967274106287</v>
+        <v>1.5058888168028017</v>
       </c>
       <c r="E19" s="2">
         <v>130</v>
@@ -2437,16 +2437,16 @@
       <c r="K19" s="2">
         <v>15775</v>
       </c>
-      <c r="L19" s="51">
+      <c r="L19" s="49">
         <v>-31</v>
       </c>
-      <c r="M19" s="51">
+      <c r="M19" s="49">
         <v>-47</v>
       </c>
-      <c r="N19" s="51">
+      <c r="N19" s="49">
         <v>-29</v>
       </c>
-      <c r="O19" s="51">
+      <c r="O19" s="49">
         <v>-19</v>
       </c>
       <c r="P19" s="40">
@@ -2464,7 +2464,7 @@
         <v>79</v>
       </c>
       <c r="D20" s="12">
-        <v>15.48723545592447</v>
+        <v>1.3412069986209838</v>
       </c>
       <c r="E20" s="2">
         <v>130</v>
@@ -2487,16 +2487,16 @@
       <c r="K20" s="2">
         <v>16900</v>
       </c>
-      <c r="L20" s="51">
+      <c r="L20" s="49">
         <v>-15</v>
       </c>
-      <c r="M20" s="51">
+      <c r="M20" s="49">
         <v>-47</v>
       </c>
-      <c r="N20" s="51">
+      <c r="N20" s="49">
         <v>-30</v>
       </c>
-      <c r="O20" s="51">
+      <c r="O20" s="49">
         <v>-33</v>
       </c>
       <c r="P20" s="40">
@@ -2514,7 +2514,7 @@
         <v>79</v>
       </c>
       <c r="D21" s="12">
-        <v>15.716982256028018</v>
+        <v>1.2090465621537996</v>
       </c>
       <c r="E21" s="2">
         <v>140</v>
@@ -2537,16 +2537,16 @@
       <c r="K21" s="2">
         <v>17400</v>
       </c>
-      <c r="L21" s="51">
+      <c r="L21" s="49">
         <v>-18</v>
       </c>
-      <c r="M21" s="51">
+      <c r="M21" s="49">
         <v>-39</v>
       </c>
-      <c r="N21" s="51">
+      <c r="N21" s="49">
         <v>-16</v>
       </c>
-      <c r="O21" s="51">
+      <c r="O21" s="49">
         <v>-32</v>
       </c>
       <c r="P21" s="40">
@@ -2564,7 +2564,7 @@
         <v>79</v>
       </c>
       <c r="D22" s="12">
-        <v>15.812089291366323</v>
+        <v>1.2062909567726336</v>
       </c>
       <c r="E22" s="2">
         <v>130</v>
@@ -2587,16 +2587,16 @@
       <c r="K22" s="2">
         <v>18900</v>
       </c>
-      <c r="L22" s="51">
+      <c r="L22" s="49">
         <v>-17</v>
       </c>
-      <c r="M22" s="51">
+      <c r="M22" s="49">
         <v>-43</v>
       </c>
-      <c r="N22" s="51">
+      <c r="N22" s="49">
         <v>-20</v>
       </c>
-      <c r="O22" s="51">
+      <c r="O22" s="49">
         <v>-15</v>
       </c>
       <c r="P22" s="40">
@@ -2614,7 +2614,7 @@
         <v>79</v>
       </c>
       <c r="D23" s="12">
-        <v>15.825182365730122</v>
+        <v>1.2035353513914677</v>
       </c>
       <c r="E23" s="2">
         <v>130</v>
@@ -2637,16 +2637,16 @@
       <c r="K23" s="2">
         <v>16825</v>
       </c>
-      <c r="L23" s="51">
+      <c r="L23" s="49">
         <v>-20</v>
       </c>
-      <c r="M23" s="51">
+      <c r="M23" s="49">
         <v>-42</v>
       </c>
-      <c r="N23" s="51">
+      <c r="N23" s="49">
         <v>-16</v>
       </c>
-      <c r="O23" s="51">
+      <c r="O23" s="49">
         <v>-35</v>
       </c>
       <c r="P23" s="40">
@@ -2664,7 +2664,7 @@
         <v>79</v>
       </c>
       <c r="D24" s="12">
-        <v>15.838275440093916</v>
+        <v>1.2007797460103018</v>
       </c>
       <c r="E24" s="2">
         <v>130</v>
@@ -2687,16 +2687,16 @@
       <c r="K24" s="2">
         <v>17375</v>
       </c>
-      <c r="L24" s="51">
+      <c r="L24" s="49">
         <v>-3</v>
       </c>
-      <c r="M24" s="51">
+      <c r="M24" s="49">
         <v>-42</v>
       </c>
-      <c r="N24" s="51">
+      <c r="N24" s="49">
         <v>-20</v>
       </c>
-      <c r="O24" s="51">
+      <c r="O24" s="49">
         <v>-34</v>
       </c>
       <c r="P24" s="40">
@@ -2714,7 +2714,7 @@
         <v>79</v>
       </c>
       <c r="D25" s="12">
-        <v>15.864461588821509</v>
+        <v>1.1952685352479699</v>
       </c>
       <c r="E25" s="2">
         <v>150</v>
@@ -2737,16 +2737,16 @@
       <c r="K25" s="2">
         <v>17975</v>
       </c>
-      <c r="L25" s="51">
+      <c r="L25" s="49">
         <v>2</v>
       </c>
-      <c r="M25" s="51">
+      <c r="M25" s="49">
         <v>-38</v>
       </c>
-      <c r="N25" s="51">
+      <c r="N25" s="49">
         <v>3</v>
       </c>
-      <c r="O25" s="51">
+      <c r="O25" s="49">
         <v>-35</v>
       </c>
       <c r="P25" s="40">
@@ -2764,7 +2764,7 @@
         <v>79</v>
       </c>
       <c r="D26" s="12">
-        <v>15.890647737549102</v>
+        <v>1.1897573244856381</v>
       </c>
       <c r="E26" s="2">
         <v>160</v>
@@ -2787,16 +2787,16 @@
       <c r="K26" s="2">
         <v>17325</v>
       </c>
-      <c r="L26" s="51">
+      <c r="L26" s="49">
         <v>17</v>
       </c>
-      <c r="M26" s="51">
+      <c r="M26" s="49">
         <v>-34</v>
       </c>
-      <c r="N26" s="51">
+      <c r="N26" s="49">
         <v>31</v>
       </c>
-      <c r="O26" s="51">
+      <c r="O26" s="49">
         <v>-29</v>
       </c>
       <c r="P26" s="40">
@@ -2813,7 +2813,7 @@
       <c r="C27" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="52">
+      <c r="D27" s="12">
         <v>2.3620108744209389</v>
       </c>
       <c r="E27" s="2">
@@ -2863,7 +2863,7 @@
       <c r="C28" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="52">
+      <c r="D28" s="12">
         <v>2.4951910798231922</v>
       </c>
       <c r="E28" s="2">
@@ -2913,7 +2913,7 @@
       <c r="C29" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="52">
+      <c r="D29" s="12">
         <v>2.5405004065257772</v>
       </c>
       <c r="E29" s="2">
@@ -2963,7 +2963,7 @@
       <c r="C30" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="52">
+      <c r="D30" s="12">
         <v>2.5138870208094555</v>
       </c>
       <c r="E30" s="2">
@@ -3013,7 +3013,7 @@
       <c r="C31" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="52">
+      <c r="D31" s="12">
         <v>2.4606602493768115</v>
       </c>
       <c r="E31" s="2">
@@ -3063,7 +3063,7 @@
       <c r="C32" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D32" s="52">
+      <c r="D32" s="12">
         <v>2.4340468636604897</v>
       </c>
       <c r="E32" s="2">
@@ -3113,7 +3113,7 @@
       <c r="C33" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D33" s="52">
+      <c r="D33" s="12">
         <v>2.4074334779441675</v>
       </c>
       <c r="E33" s="2">
@@ -3163,7 +3163,7 @@
       <c r="C34" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="52">
+      <c r="D34" s="12">
         <v>2.3808200922278457</v>
       </c>
       <c r="E34" s="2">
@@ -3213,7 +3213,7 @@
       <c r="C35" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="52">
+      <c r="D35" s="12">
         <v>2.354206706511524</v>
       </c>
       <c r="E35" s="2">
@@ -3263,7 +3263,7 @@
       <c r="C36" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="52">
+      <c r="D36" s="12">
         <v>2.2743665493625578</v>
       </c>
       <c r="E36" s="2">
@@ -3313,7 +3313,7 @@
       <c r="C37" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D37" s="52">
+      <c r="D37" s="12">
         <v>2.247753163646236</v>
       </c>
       <c r="E37" s="2">
@@ -3363,7 +3363,7 @@
       <c r="C38" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D38" s="52">
+      <c r="D38" s="12">
         <v>2.2211397779299142</v>
       </c>
       <c r="E38" s="2">
@@ -3413,7 +3413,7 @@
       <c r="C39" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D39" s="52">
+      <c r="D39" s="12">
         <v>2.1945263922135925</v>
       </c>
       <c r="E39" s="2">
@@ -3463,7 +3463,7 @@
       <c r="C40" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D40" s="52">
+      <c r="D40" s="12">
         <v>2.1679130064972703</v>
       </c>
       <c r="E40" s="2">
@@ -3513,7 +3513,7 @@
       <c r="C41" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="52">
+      <c r="D41" s="12">
         <v>2.1412996207809485</v>
       </c>
       <c r="E41" s="2">
@@ -3563,7 +3563,7 @@
       <c r="C42" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="52">
+      <c r="D42" s="12">
         <v>2.1146862350646267</v>
       </c>
       <c r="E42" s="2">
@@ -3613,7 +3613,7 @@
       <c r="C43" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D43" s="52">
+      <c r="D43" s="12">
         <v>2.0880728493483045</v>
       </c>
       <c r="E43" s="2">
@@ -3663,7 +3663,7 @@
       <c r="C44" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D44" s="52">
+      <c r="D44" s="12">
         <v>2.0348460779156605</v>
       </c>
       <c r="E44" s="2">
@@ -3713,7 +3713,7 @@
       <c r="C45" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D45" s="52">
+      <c r="D45" s="12">
         <v>2.0082326921993388</v>
       </c>
       <c r="E45" s="2">
@@ -3763,7 +3763,7 @@
       <c r="C46" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D46" s="52">
+      <c r="D46" s="12">
         <v>1.981619306483017</v>
       </c>
       <c r="E46" s="2">
@@ -3813,7 +3813,7 @@
       <c r="C47" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D47" s="52">
+      <c r="D47" s="12">
         <v>1.955005920766695</v>
       </c>
       <c r="E47" s="2">
@@ -3863,7 +3863,7 @@
       <c r="C48" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D48" s="52">
+      <c r="D48" s="12">
         <v>1.949426591584134</v>
       </c>
       <c r="E48" s="2">
@@ -3913,7 +3913,7 @@
       <c r="C49" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="52">
+      <c r="D49" s="12">
         <v>1.9626629197997745</v>
       </c>
       <c r="E49" s="2">
@@ -3963,7 +3963,7 @@
       <c r="C50" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D50" s="52">
+      <c r="D50" s="12">
         <v>1.9758992480154149</v>
       </c>
       <c r="E50" s="2">
@@ -4013,7 +4013,7 @@
       <c r="C51" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D51" s="52">
+      <c r="D51" s="12">
         <v>1.9891355762310556</v>
       </c>
       <c r="E51" s="2">
@@ -4057,7 +4057,7 @@
       <c r="A77" s="2"/>
       <c r="B77" s="12"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="52"/>
+      <c r="D77" s="50"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
@@ -4075,7 +4075,7 @@
       <c r="A78" s="2"/>
       <c r="B78" s="12"/>
       <c r="C78" s="2"/>
-      <c r="D78" s="52"/>
+      <c r="D78" s="50"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
@@ -4093,7 +4093,7 @@
       <c r="A79" s="2"/>
       <c r="B79" s="12"/>
       <c r="C79" s="2"/>
-      <c r="D79" s="52"/>
+      <c r="D79" s="50"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
@@ -4111,7 +4111,7 @@
       <c r="A80" s="2"/>
       <c r="B80" s="12"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="52"/>
+      <c r="D80" s="50"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
@@ -4129,7 +4129,7 @@
       <c r="A81" s="2"/>
       <c r="B81" s="12"/>
       <c r="C81" s="2"/>
-      <c r="D81" s="52"/>
+      <c r="D81" s="50"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -4147,7 +4147,7 @@
       <c r="A82" s="2"/>
       <c r="B82" s="12"/>
       <c r="C82" s="2"/>
-      <c r="D82" s="52"/>
+      <c r="D82" s="50"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -4165,7 +4165,7 @@
       <c r="A83" s="2"/>
       <c r="B83" s="12"/>
       <c r="C83" s="2"/>
-      <c r="D83" s="52"/>
+      <c r="D83" s="50"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -4183,7 +4183,7 @@
       <c r="A84" s="2"/>
       <c r="B84" s="12"/>
       <c r="C84" s="2"/>
-      <c r="D84" s="52"/>
+      <c r="D84" s="50"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
@@ -4201,7 +4201,7 @@
       <c r="A85" s="2"/>
       <c r="B85" s="12"/>
       <c r="C85" s="2"/>
-      <c r="D85" s="52"/>
+      <c r="D85" s="50"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
@@ -4219,7 +4219,7 @@
       <c r="A86" s="2"/>
       <c r="B86" s="12"/>
       <c r="C86" s="2"/>
-      <c r="D86" s="52"/>
+      <c r="D86" s="50"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
@@ -4237,7 +4237,7 @@
       <c r="A87" s="2"/>
       <c r="B87" s="12"/>
       <c r="C87" s="2"/>
-      <c r="D87" s="52"/>
+      <c r="D87" s="50"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
@@ -4255,7 +4255,7 @@
       <c r="A88" s="2"/>
       <c r="B88" s="12"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="52"/>
+      <c r="D88" s="50"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
@@ -4273,7 +4273,7 @@
       <c r="A89" s="2"/>
       <c r="B89" s="12"/>
       <c r="C89" s="2"/>
-      <c r="D89" s="52"/>
+      <c r="D89" s="50"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
@@ -4291,7 +4291,7 @@
       <c r="A90" s="2"/>
       <c r="B90" s="12"/>
       <c r="C90" s="2"/>
-      <c r="D90" s="52"/>
+      <c r="D90" s="50"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
@@ -4309,7 +4309,7 @@
       <c r="A91" s="2"/>
       <c r="B91" s="12"/>
       <c r="C91" s="2"/>
-      <c r="D91" s="52"/>
+      <c r="D91" s="50"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
@@ -4327,7 +4327,7 @@
       <c r="A92" s="2"/>
       <c r="B92" s="12"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="52"/>
+      <c r="D92" s="50"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
@@ -4345,7 +4345,7 @@
       <c r="A93" s="2"/>
       <c r="B93" s="12"/>
       <c r="C93" s="2"/>
-      <c r="D93" s="52"/>
+      <c r="D93" s="50"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
@@ -4363,7 +4363,7 @@
       <c r="A94" s="2"/>
       <c r="B94" s="12"/>
       <c r="C94" s="2"/>
-      <c r="D94" s="52"/>
+      <c r="D94" s="50"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
@@ -4381,7 +4381,7 @@
       <c r="A95" s="2"/>
       <c r="B95" s="12"/>
       <c r="C95" s="2"/>
-      <c r="D95" s="52"/>
+      <c r="D95" s="50"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
@@ -4399,7 +4399,7 @@
       <c r="A96" s="2"/>
       <c r="B96" s="12"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="52"/>
+      <c r="D96" s="50"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
@@ -4417,7 +4417,7 @@
       <c r="A97" s="2"/>
       <c r="B97" s="12"/>
       <c r="C97" s="2"/>
-      <c r="D97" s="52"/>
+      <c r="D97" s="50"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
@@ -4435,7 +4435,7 @@
       <c r="A98" s="2"/>
       <c r="B98" s="12"/>
       <c r="C98" s="2"/>
-      <c r="D98" s="52"/>
+      <c r="D98" s="50"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
@@ -4453,7 +4453,7 @@
       <c r="A99" s="2"/>
       <c r="B99" s="12"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="52"/>
+      <c r="D99" s="50"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
@@ -4471,7 +4471,7 @@
       <c r="A100" s="2"/>
       <c r="B100" s="12"/>
       <c r="C100" s="2"/>
-      <c r="D100" s="52"/>
+      <c r="D100" s="50"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
@@ -4489,7 +4489,7 @@
       <c r="A101" s="2"/>
       <c r="B101" s="12"/>
       <c r="C101" s="2"/>
-      <c r="D101" s="52"/>
+      <c r="D101" s="50"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>

--- a/Surface Settlement/Data Set 4.xlsx
+++ b/Surface Settlement/Data Set 4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\Database\Surface Settlement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77446810-4202-49EE-B1F4-FE7C8A5BA635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54594C21-46E9-4AC5-A2E8-CA3DC81215BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="2730" windowWidth="19185" windowHeight="14970" activeTab="1" xr2:uid="{23A04F31-3D16-480B-8928-E1B4F80BD64E}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{23A04F31-3D16-480B-8928-E1B4F80BD64E}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Information" sheetId="5" r:id="rId1"/>
@@ -1498,7 +1498,7 @@
   <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1564,7 +1564,7 @@
         <v>79</v>
       </c>
       <c r="D2" s="12">
-        <v>1.463448255910941</v>
+        <v>1.46</v>
       </c>
       <c r="E2" s="2">
         <v>40</v>
